--- a/SpMVC_005_RentBook/document/책관리-테이블명세.xlsx
+++ b/SpMVC_005_RentBook/document/책관리-테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS505003\Documents\workspace\SpringMVC\SpMVC_005_RentBook\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62313271-2C90-4265-888B-801E5C519DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023A3D5B-E565-4848-9270-C540F5FC6F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="24210" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="24210" windowHeight="13290" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="도서정보" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -249,18 +249,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>U_NAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U_TEL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>U_ADDR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TBL_RENT_BOOK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -293,10 +281,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>문자열(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>문자열(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -321,10 +305,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RENT_UCODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RENT_RETURN_YN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -357,10 +337,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AUTO_INCREMENT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Y:반납, NULL:미반납</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -369,11 +345,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR(13)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_MEMBERS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_CODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_TEL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_ADDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(13)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대여금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENT_PRICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENT_MCODE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1278,7 +1298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -2042,7 +2062,7 @@
         <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>45</v>
@@ -2500,7 +2520,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E6" sqref="E6:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3156,7 +3176,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>14</v>
@@ -3260,10 +3280,10 @@
         <v>31</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>45</v>
@@ -3287,7 +3307,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>43</v>
@@ -3309,15 +3329,17 @@
         <v>52</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="10"/>
+        <v>86</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -3335,7 +3357,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>43</v>
@@ -3690,8 +3712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC10EF12-E74C-479B-BDA5-4BE01630491E}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4347,7 +4369,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>14</v>
@@ -4372,7 +4394,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -4393,7 +4415,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -4445,16 +4467,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>45</v>
@@ -4462,13 +4484,11 @@
       <c r="H6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4476,16 +4496,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>45</v>
@@ -4501,16 +4521,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>45</v>
@@ -4529,20 +4549,20 @@
         <v>26</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>22</v>
@@ -4563,17 +4583,17 @@
         <v>31</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>47</v>
@@ -4588,16 +4608,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>68</v>
-      </c>
       <c r="E11" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -4605,7 +4625,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4613,13 +4633,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>44</v>
@@ -4630,17 +4650,25 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
